--- a/AAII_Financials/Quarterly/DLEXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLEXY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FEF600-A7B5-4789-A702-705F9DBE9D0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="DLEXY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>DLEXY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,155 +654,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31900</v>
+        <v>22600</v>
       </c>
       <c r="E8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>24700</v>
+      </c>
+      <c r="G8" s="3">
         <v>33600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>30300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>30900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>24400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>25800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>20800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>23200</v>
+        <v>21300</v>
       </c>
       <c r="E9" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45400</v>
+      </c>
+      <c r="G9" s="3">
         <v>25100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>22000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>21800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>19600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>17000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>16400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8700</v>
+        <v>1300</v>
       </c>
       <c r="E10" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="G10" s="3">
         <v>8500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>8300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>9100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>8800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +840,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +871,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,28 +906,34 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>34900</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+        <v>27000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -936,8 +941,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -965,8 +976,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -975,66 +992,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29900</v>
+        <v>28900</v>
       </c>
       <c r="E17" s="3">
+        <v>59400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>55100</v>
+      </c>
+      <c r="G17" s="3">
         <v>28200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>28500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>27100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>23000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>22000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>20600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2000</v>
+        <v>-6300</v>
       </c>
       <c r="E18" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="G18" s="3">
         <v>5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1400</v>
       </c>
       <c r="I18" s="3">
         <v>3800</v>
       </c>
       <c r="J18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1046,8 +1077,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1073,126 +1106,156 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5900</v>
+        <v>-5300</v>
       </c>
       <c r="E21" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="G21" s="3">
         <v>8500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>7400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2000</v>
+        <v>-6700</v>
       </c>
       <c r="E23" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="G23" s="3">
         <v>5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-300</v>
-      </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>-300</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1220,66 +1283,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2000</v>
+        <v>-6900</v>
       </c>
       <c r="E26" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="G26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2000</v>
+        <v>-6900</v>
       </c>
       <c r="E27" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="G27" s="3">
         <v>5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1307,8 +1388,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1336,8 +1423,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1365,8 +1458,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1394,8 +1493,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1406,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1421,39 +1526,51 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2000</v>
+        <v>-6900</v>
       </c>
       <c r="E33" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="G33" s="3">
         <v>5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1481,71 +1598,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2000</v>
+        <v>-6900</v>
       </c>
       <c r="E35" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="G35" s="3">
         <v>5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1557,8 +1692,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1570,37 +1707,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F41" s="3">
         <v>11900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>16200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>16900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>24300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>18000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>17200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>16200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1613,52 +1758,64 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>4600</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F43" s="3">
         <v>21600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>18200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>20200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>14300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>13900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>10800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>10900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1686,25 +1843,31 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1200</v>
       </c>
       <c r="I45" s="3">
         <v>800</v>
@@ -1713,59 +1876,71 @@
         <v>1200</v>
       </c>
       <c r="K45" s="3">
+        <v>800</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F46" s="3">
         <v>35500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>35400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>38500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>39500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>33100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>33400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>28200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>700</v>
+      </c>
+      <c r="F47" s="3">
         <v>1100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>300</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -1773,66 +1948,84 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F48" s="3">
         <v>2200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2100</v>
       </c>
       <c r="G48" s="3">
         <v>2300</v>
       </c>
       <c r="H48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>100</v>
+      </c>
+      <c r="F49" s="3">
         <v>30000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>26600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>22500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>19200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>17400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>15400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>14000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,8 +2053,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,37 +2088,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1947,37 +2158,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F54" s="3">
         <v>71200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>70200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>65400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>63300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>54900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>52000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>45000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1989,8 +2212,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2002,173 +2227,205 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F57" s="3">
         <v>6800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F59" s="3">
         <v>16800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>15300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>12300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>10500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F60" s="3">
         <v>23700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>21600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>23300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>19600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>16100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>900</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2176,8 +2433,14 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2205,8 +2468,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2234,8 +2503,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2263,37 +2538,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F66" s="3">
         <v>25200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>22800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>24100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>20500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2305,8 +2592,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2334,8 +2623,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2363,8 +2658,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,8 +2693,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2421,37 +2728,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="F72" s="3">
         <v>38100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>39400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>33400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>35000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>30400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>31800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>26300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2479,8 +2798,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2508,8 +2833,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2537,37 +2868,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F76" s="3">
         <v>46100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>47300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>41300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>42800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>38300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>39600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>34000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2595,71 +2938,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2000</v>
+        <v>-6900</v>
       </c>
       <c r="E81" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="G81" s="3">
         <v>5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2671,37 +3032,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G83" s="3">
         <v>3200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2729,8 +3098,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2758,8 +3133,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2787,8 +3168,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2816,8 +3203,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2845,37 +3238,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F89" s="3">
         <v>3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>10800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>11600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>9600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2887,37 +3292,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="J91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2945,8 +3358,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2974,37 +3393,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7800</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-8400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-6200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-8200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3016,8 +3447,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3031,22 +3464,28 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-3000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-2200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3074,8 +3513,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3103,8 +3548,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3132,91 +3583,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLEXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLEXY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,160 +675,186 @@
     <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E8" s="3">
         <v>22600</v>
       </c>
-      <c r="E8" s="3">
-        <v>13200</v>
-      </c>
       <c r="F8" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>20400</v>
+      </c>
+      <c r="H8" s="3">
         <v>24700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>33600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>30300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>30900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>24400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>25800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>20800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F9" s="3">
         <v>21300</v>
       </c>
-      <c r="E9" s="3">
-        <v>22200</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>18500</v>
+      </c>
+      <c r="H9" s="3">
         <v>45400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>25100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>22000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>21800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>19600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>17000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>16400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H10" s="3">
         <v>-20700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>8500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>8300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>9100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>8800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +868,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +905,14 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,34 +946,40 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F14" s="3">
         <v>2500</v>
       </c>
-      <c r="E14" s="3">
-        <v>34900</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H14" s="3">
         <v>27000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -947,8 +987,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1028,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1046,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>26700</v>
+      </c>
+      <c r="F17" s="3">
         <v>28900</v>
       </c>
-      <c r="E17" s="3">
-        <v>59400</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>34300</v>
+      </c>
+      <c r="H17" s="3">
         <v>55100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>28200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>28500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>27100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>23000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>22000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>20600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6300</v>
       </c>
-      <c r="E18" s="3">
-        <v>-46200</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="H18" s="3">
         <v>-30400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1400</v>
       </c>
       <c r="K18" s="3">
         <v>3800</v>
       </c>
       <c r="L18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,25 +1145,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1112,150 +1180,180 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5300</v>
+        <v>-3800</v>
       </c>
       <c r="E21" s="3">
-        <v>-42300</v>
+        <v>-4300</v>
       </c>
       <c r="F21" s="3">
-        <v>-26600</v>
+        <v>-5700</v>
       </c>
       <c r="G21" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="I21" s="3">
         <v>8500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>7400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
-        <v>400</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-46700</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-30500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2600</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="I24" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>-300</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1387,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6900</v>
       </c>
-      <c r="E26" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-33100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6900</v>
       </c>
-      <c r="E27" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-33100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>5500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1510,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1551,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1592,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,25 +1633,31 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1532,45 +1672,57 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6900</v>
       </c>
-      <c r="E33" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-33100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>5500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1756,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6900</v>
       </c>
-      <c r="E35" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-33100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>5500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1864,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,113 +1881,133 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>16200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>16900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>24300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>18000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>17200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>16200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F43" s="3">
         <v>10400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>8200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>21600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>18200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>20200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>14300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>13900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>10900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1849,31 +2041,37 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>14600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1200</v>
       </c>
       <c r="K45" s="3">
         <v>800</v>
@@ -1882,71 +2080,83 @@
         <v>1200</v>
       </c>
       <c r="M45" s="3">
+        <v>800</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F46" s="3">
         <v>28700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>18700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>35500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>35400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>38500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>39500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>33100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>33400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>28200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>300</v>
+      </c>
+      <c r="F47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -1954,78 +2164,96 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F48" s="3">
         <v>7800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2100</v>
       </c>
       <c r="I48" s="3">
         <v>2300</v>
       </c>
       <c r="J48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>200</v>
+      </c>
+      <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>30000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>26600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>22500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>19200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>17400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>15400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>14000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2287,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2328,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>11700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2410,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F54" s="3">
         <v>38400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>33700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>71200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>70200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>65400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>63300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>54900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>52000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>45000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2472,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,209 +2489,241 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>400</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F59" s="3">
         <v>29000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>22600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>16800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>14200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>15300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>12300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F60" s="3">
         <v>39000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>30400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>23700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>21600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>23300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>19600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>16100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F61" s="3">
         <v>8900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>11800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -2439,8 +2731,14 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2772,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2813,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2854,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F66" s="3">
         <v>50400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>43100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>25200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>22800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>24100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>20500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2916,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2953,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2994,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +3035,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +3076,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>38100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>39400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>33400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>35000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>30400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>31800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>26300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +3158,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3199,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3240,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-12000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-9400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>46100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>47300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>41300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>42800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>38300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>39600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>34000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3322,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6900</v>
       </c>
-      <c r="E81" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-33100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>5500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,43 +3430,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>900</v>
+      </c>
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3508,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3549,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3590,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3631,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3672,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-11200</v>
       </c>
-      <c r="E89" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H89" s="3">
         <v>3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>10800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>11600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>9600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3734,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3812,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3853,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-8400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-6200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-5300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3915,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3458,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3470,22 +3938,28 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-3000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3993,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +4034,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,43 +4075,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F100" s="3">
         <v>6500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-3300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-3500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3636,62 +4134,74 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-7400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLEXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLEXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>DLEXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E8" s="3">
         <v>13200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>22600</v>
       </c>
       <c r="F8" s="3">
         <v>22600</v>
       </c>
       <c r="G8" s="3">
+        <v>22600</v>
+      </c>
+      <c r="H8" s="3">
         <v>20400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>30300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E9" s="3">
         <v>10600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-20700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,28 +969,31 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -981,8 +1001,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -993,8 +1013,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="3">
         <v>16700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,8 +1180,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1156,204 +1190,219 @@
         <v>-1300</v>
       </c>
       <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-3800</v>
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-33100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-33100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,8 +1706,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1648,81 +1718,87 @@
         <v>1300</v>
       </c>
       <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-33100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-33100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +1969,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1957,57 +2047,63 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>4600</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>18200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2047,119 +2143,128 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E46" s="3">
         <v>14700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>38500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>39500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>700</v>
       </c>
       <c r="H47" s="3">
+        <v>700</v>
+      </c>
+      <c r="I47" s="3">
         <v>1100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>300</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>300</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2170,90 +2275,99 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
         <v>6100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
       </c>
       <c r="H49" s="3">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
         <v>30000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>26600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>22500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15400</v>
-      </c>
-      <c r="N49" s="3">
-        <v>14000</v>
       </c>
       <c r="O49" s="3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2100</v>
       </c>
       <c r="K52" s="3">
         <v>2100</v>
       </c>
       <c r="L52" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M52" s="3">
         <v>1700</v>
       </c>
       <c r="N52" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="O52" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E54" s="3">
         <v>24600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>71200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>70200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>65400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>52000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,213 +2621,229 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>7000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E58" s="3">
         <v>14100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E59" s="3">
         <v>14000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E60" s="3">
         <v>35100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E61" s="3">
         <v>5100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
       </c>
       <c r="M61" s="3">
+        <v>500</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2705,28 +2851,28 @@
         <v>6300</v>
       </c>
       <c r="E62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F62" s="3">
         <v>4800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -2737,8 +2883,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E66" s="3">
         <v>46500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>39400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>33400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>35000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-21900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-17100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>46100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>42800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-33100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,49 +3630,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3900</v>
       </c>
       <c r="H83" s="3">
         <v>3900</v>
       </c>
       <c r="I83" s="3">
-        <v>3200</v>
+        <v>3900</v>
       </c>
       <c r="J83" s="3">
         <v>3200</v>
       </c>
       <c r="K83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L83" s="3">
         <v>3600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,8 +4150,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3932,34 +4166,37 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3800</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-3800</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-2200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,54 +4324,60 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4140,68 +4389,74 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLEXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLEXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>DLEXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E8" s="3">
         <v>14900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>22600</v>
       </c>
       <c r="G8" s="3">
         <v>22600</v>
       </c>
       <c r="H8" s="3">
+        <v>22600</v>
+      </c>
+      <c r="I8" s="3">
         <v>20400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E9" s="3">
         <v>8600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E10" s="3">
         <v>6300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-20700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,31 +989,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1004,8 +1024,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1016,8 +1036,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E17" s="3">
         <v>15000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,228 +1214,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>300</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-33100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2056,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2050,60 +2140,66 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>4600</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E43" s="3">
         <v>7000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>18200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2146,128 +2242,137 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>35400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>39500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>700</v>
-      </c>
-      <c r="E47" s="3">
-        <v>300</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="H47" s="3">
         <v>700</v>
       </c>
       <c r="I47" s="3">
+        <v>700</v>
+      </c>
+      <c r="J47" s="3">
         <v>1100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>300</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="M47" s="3">
+        <v>300</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2278,96 +2383,105 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
       </c>
       <c r="I49" s="3">
+        <v>100</v>
+      </c>
+      <c r="J49" s="3">
         <v>30000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>26600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>22500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>14000</v>
       </c>
       <c r="P49" s="3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,8 +2571,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2463,43 +2583,46 @@
         <v>2900</v>
       </c>
       <c r="E52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2100</v>
       </c>
       <c r="L52" s="3">
         <v>2100</v>
       </c>
       <c r="M52" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="N52" s="3">
         <v>1700</v>
       </c>
       <c r="O52" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="P52" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E54" s="3">
         <v>20800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>71200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>70200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>52000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,260 +2752,276 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E58" s="3">
         <v>17000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E59" s="3">
         <v>12200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E60" s="3">
         <v>33400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>35100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>30400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>500</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
       </c>
       <c r="N61" s="3">
+        <v>500</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6300</v>
+        <v>4800</v>
       </c>
       <c r="E62" s="3">
         <v>6300</v>
       </c>
       <c r="F62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G62" s="3">
         <v>4800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -2886,8 +3032,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E66" s="3">
         <v>44500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>39400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-23700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-21900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-17100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>46100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +3829,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3900</v>
       </c>
       <c r="I83" s="3">
         <v>3900</v>
       </c>
       <c r="J83" s="3">
-        <v>3200</v>
+        <v>3900</v>
       </c>
       <c r="K83" s="3">
         <v>3200</v>
       </c>
       <c r="L83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M83" s="3">
         <v>3600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,8 +4316,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4098,43 +4328,46 @@
         <v>-900</v>
       </c>
       <c r="E94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4384,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4169,34 +4403,37 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3800</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-2200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,61 +4570,67 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -4392,71 +4641,77 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLEXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLEXY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>DLEXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,261 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G8" s="3">
         <v>12600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>14900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>13200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>22600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>22600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>20400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>24700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>33600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>30300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>30900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>24400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>25800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>20800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G9" s="3">
         <v>5900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>8600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>10600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>11900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>21300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>18500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>45400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>25100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>22000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>21800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>19600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>17000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>16400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G10" s="3">
         <v>6700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>6300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>10700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>-20700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>8500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>8300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>9100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>4800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>8800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>4400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +937,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +987,17 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,55 +1043,73 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>5100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>8100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>27000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1155,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1180,123 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G17" s="3">
         <v>13600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>15000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>16700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>26700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>28900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>34300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>55100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>28200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>28500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>27100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>23000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>22000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>20600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-13900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-30400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,196 +1314,235 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-5700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-9800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-26700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>8500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>7400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>4300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>6100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-14200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-30500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1412,46 +1550,55 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1644,129 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-14200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-33100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-14200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-33100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1812,17 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1685,8 +1868,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1924,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1980,129 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-14200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-33100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +2148,134 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-14200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-33100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2293,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,55 +2315,67 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>3400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>3100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>8400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>11900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>16200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>16900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>24300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>18000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>17200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>16200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2143,63 +2413,81 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>4600</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G43" s="3">
         <v>5900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>7000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>10000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>9300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>10400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>8200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>21600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>18200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>20200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>14300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>13900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>10800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>10900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2245,102 +2533,129 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>14600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F46" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G46" s="3">
         <v>9000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>10400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>14700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>12900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>28700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>18700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>35500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>35400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>38500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>39500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>33100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>33400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>28200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2348,140 +2663,167 @@
         <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H47" s="3">
         <v>700</v>
       </c>
       <c r="I47" s="3">
+        <v>300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>300</v>
+      </c>
+      <c r="K47" s="3">
         <v>700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
+        <v>700</v>
+      </c>
+      <c r="M47" s="3">
         <v>1100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>3000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>300</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>6100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>6900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>7800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G49" s="3">
         <v>2700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>1800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>30000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>26600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>22500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>19200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>17400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>15400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>14000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2869,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2925,73 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I52" s="3">
         <v>2600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>11700</v>
       </c>
       <c r="J52" s="3">
         <v>2400</v>
       </c>
       <c r="K52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>11700</v>
+      </c>
+      <c r="M52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N52" s="3">
         <v>2900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>2100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>1400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +3037,73 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>21200</v>
+      </c>
+      <c r="G54" s="3">
         <v>16500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>20800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>24600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>22600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>38400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>33700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>71200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>70200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>65400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>63300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>54900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>52000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>45000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +3121,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +3143,347 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>7000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>7200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>8800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>7400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>6800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>7100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>7700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>7000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>5100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>900</v>
+      </c>
+      <c r="G58" s="3">
         <v>17800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>17000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>14100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>13400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G59" s="3">
         <v>15700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>12200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>14000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>8800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>29000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>22600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>16800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>14200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>15300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>12300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>10500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>9400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>7100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G60" s="3">
         <v>36200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>33400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>35100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>29400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>39000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>30400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>23700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>21600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>23300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>19600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>16100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>12300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>10900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>900</v>
+      </c>
+      <c r="G61" s="3">
         <v>2400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>4800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>5100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>5500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>8900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
-      </c>
-      <c r="L61" s="3">
-        <v>200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>500</v>
-      </c>
-      <c r="N61" s="3">
-        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
       </c>
       <c r="P61" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>500</v>
+      </c>
+      <c r="R61" s="3">
+        <v>200</v>
+      </c>
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4800</v>
+        <v>6200</v>
       </c>
       <c r="E62" s="3">
-        <v>6300</v>
+        <v>8900</v>
       </c>
       <c r="F62" s="3">
-        <v>6300</v>
+        <v>10400</v>
       </c>
       <c r="G62" s="3">
         <v>4800</v>
       </c>
       <c r="H62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>11800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3529,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3585,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3641,73 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G66" s="3">
         <v>43400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>44500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>46500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>39700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>50400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>43100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>25200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>22800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>24100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>20500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>16600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>12500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>10900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3725,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3775,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3831,17 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3887,17 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3943,73 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-35400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-32200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-30400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-25600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-20500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-17400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>38100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>39400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>33400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>35000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>30400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>31800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>26300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +4055,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +4111,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +4167,73 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-26900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-23700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-21900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-17100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-12000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-9400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>46100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>47300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>41300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>42800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>38300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>39600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>34000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +4279,134 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-14200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-33100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,55 +4424,67 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>900</v>
+      </c>
+      <c r="G83" s="3">
         <v>700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>900</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
       </c>
       <c r="I83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>900</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L83" s="3">
         <v>3900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>3900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>3200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>3600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>2900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>2400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>3100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="T83" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4530,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4586,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4642,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4698,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4754,73 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-11200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-5000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>10800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>11600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>5300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>9600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>3400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,43 +4838,46 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2200</v>
       </c>
       <c r="F91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1200</v>
       </c>
       <c r="O91" s="3">
         <v>-300</v>
@@ -4223,10 +4886,19 @@
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4944,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +5000,73 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-8400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-6200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-5300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-8200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +5084,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4406,34 +5108,43 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3800</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="Q96" s="3">
         <v>-3000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +5190,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +5246,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +5302,181 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>7500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>6500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-3300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-3500</v>
       </c>
       <c r="O100" s="3">
         <v>-200</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S100" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-4700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-4200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-7400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>4000</v>
       </c>
     </row>
